--- a/spliced/falling/2023-03-21_15-37-22/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-22/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.3119066953659063</v>
+        <v>0.4420366287231431</v>
       </c>
       <c r="D2" t="n">
-        <v>3.965313136577606</v>
+        <v>4.159920692443848</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.959281176328659</v>
+        <v>-1.852656066417694</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.024892758578062</v>
+        <v>0.0030543261673301</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007941247895359899</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="H2" t="n">
-        <v>0.039248090237379</v>
+        <v>-0.0439822971820831</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.328240633010866</v>
+        <v>-0.3119066953659063</v>
       </c>
       <c r="D3" t="n">
-        <v>3.452776372432707</v>
+        <v>3.965313136577606</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.262899994850159</v>
+        <v>-1.959281176328659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0134390350431203</v>
+        <v>-0.024892758578062</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0357356183230876</v>
+        <v>0.007941247895359899</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0925460830330848</v>
+        <v>0.039248090237379</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.280377209186554</v>
+        <v>-1.328240633010866</v>
       </c>
       <c r="D4" t="n">
-        <v>2.56487038731575</v>
+        <v>3.452776372432707</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.792269647121429</v>
+        <v>-2.262899994850159</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2785545587539673</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0339030213654041</v>
+        <v>0.0357356183230876</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0149661982432007</v>
+        <v>0.0925460830330848</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.962558269500729</v>
+        <v>-2.280377209186554</v>
       </c>
       <c r="D5" t="n">
-        <v>2.719248294830324</v>
+        <v>2.56487038731575</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.176476478576662</v>
+        <v>-2.792269647121429</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2206750661134719</v>
+        <v>-0.2785545587539673</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6401867866516113</v>
+        <v>-0.0339030213654041</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2525927722454071</v>
+        <v>0.0149661982432007</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.4654391407966572</v>
+        <v>-1.962558269500729</v>
       </c>
       <c r="D6" t="n">
-        <v>3.728965997695926</v>
+        <v>2.719248294830324</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.883096873760225</v>
+        <v>-4.176476478576662</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9094256162643432</v>
+        <v>-0.2206750661134719</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5726861953735352</v>
+        <v>0.6401867866516113</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6157521605491638</v>
+        <v>0.2525927722454071</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.8071434497833259</v>
+        <v>-0.4654391407966572</v>
       </c>
       <c r="D7" t="n">
-        <v>3.663023471832275</v>
+        <v>3.728965997695926</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.005156159400943</v>
+        <v>-4.883096873760225</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3003929853439331</v>
+        <v>0.9094256162643432</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3223841190338135</v>
+        <v>-0.5726861953735352</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0675006061792373</v>
+        <v>0.6157521605491638</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.102240324020393</v>
+        <v>-0.8071434497833259</v>
       </c>
       <c r="D8" t="n">
-        <v>3.889697194099427</v>
+        <v>3.663023471832275</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.86714211106299</v>
+        <v>-7.005156159400943</v>
       </c>
       <c r="F8" t="n">
-        <v>0.40943244099617</v>
+        <v>0.3003929853439331</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7831292152404785</v>
+        <v>-0.3223841190338135</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2806925773620605</v>
+        <v>-0.0675006061792373</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8947885036468448</v>
+        <v>2.102240324020393</v>
       </c>
       <c r="D9" t="n">
-        <v>4.364453077316285</v>
+        <v>3.889697194099427</v>
       </c>
       <c r="E9" t="n">
-        <v>5.636359572410591</v>
+        <v>-1.86714211106299</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4190535545349121</v>
+        <v>0.40943244099617</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07376197725534429</v>
+        <v>0.7831292152404785</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.578767538070679</v>
+        <v>-0.2806925773620605</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.309004843235045</v>
+        <v>0.8947885036468448</v>
       </c>
       <c r="D10" t="n">
-        <v>3.808936268091196</v>
+        <v>4.364453077316285</v>
       </c>
       <c r="E10" t="n">
-        <v>8.007967770099629</v>
+        <v>5.636359572410591</v>
       </c>
       <c r="F10" t="n">
-        <v>2.760499954223633</v>
+        <v>-0.4190535545349121</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.066987991333008</v>
+        <v>-0.07376197725534429</v>
       </c>
       <c r="H10" t="n">
-        <v>1.048855662345886</v>
+        <v>-2.578767538070679</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.03219151496884</v>
+        <v>2.309004843235045</v>
       </c>
       <c r="D11" t="n">
-        <v>2.626607954502109</v>
+        <v>3.808936268091196</v>
       </c>
       <c r="E11" t="n">
-        <v>4.059313654899583</v>
+        <v>8.007967770099629</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5668829679489136</v>
+        <v>2.760499954223633</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.699732542037964</v>
+        <v>-4.066987991333008</v>
       </c>
       <c r="H11" t="n">
-        <v>1.101084589958191</v>
+        <v>1.048855662345886</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.8205822110175988</v>
+        <v>7.03219151496884</v>
       </c>
       <c r="D12" t="n">
-        <v>3.666950583457956</v>
+        <v>2.626607954502109</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5117366313934346</v>
+        <v>4.059313654899583</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7536550164222717</v>
+        <v>0.5668829679489136</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4547891616821289</v>
+        <v>-1.699732542037964</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0024434609804302</v>
+        <v>1.101084589958191</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.767575740814208</v>
+        <v>-0.8205822110175988</v>
       </c>
       <c r="D13" t="n">
-        <v>5.950162887573243</v>
+        <v>3.666950583457956</v>
       </c>
       <c r="E13" t="n">
-        <v>1.030251502990718</v>
+        <v>0.5117366313934346</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0832303911447525</v>
+        <v>-0.7536550164222717</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0516181141138076</v>
+        <v>-0.4547891616821289</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2286163121461868</v>
+        <v>0.0024434609804302</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.609463393688202</v>
+        <v>1.767575740814208</v>
       </c>
       <c r="D14" t="n">
-        <v>6.117009162902832</v>
+        <v>5.950162887573243</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02948403358459517</v>
+        <v>1.030251502990718</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06688974797725671</v>
+        <v>-0.0832303911447525</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5899431109428406</v>
+        <v>-0.0516181141138076</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3481931984424591</v>
+        <v>-0.2286163121461868</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.414643406867981</v>
+        <v>1.609463393688202</v>
       </c>
       <c r="D15" t="n">
-        <v>3.881679594516751</v>
+        <v>6.117009162902832</v>
       </c>
       <c r="E15" t="n">
-        <v>1.453149795532228</v>
+        <v>-0.02948403358459517</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7376197576522827</v>
+        <v>0.06688974797725671</v>
       </c>
       <c r="G15" t="n">
-        <v>1.138958215713501</v>
+        <v>0.5899431109428406</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1828014254570007</v>
+        <v>-0.3481931984424591</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7576336860656723</v>
+        <v>1.414643406867981</v>
       </c>
       <c r="D16" t="n">
-        <v>3.080292761325836</v>
+        <v>3.881679594516751</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4208878278732262</v>
+        <v>1.453149795532228</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.0334312915802</v>
+        <v>-0.7376197576522827</v>
       </c>
       <c r="G16" t="n">
-        <v>1.02701723575592</v>
+        <v>1.138958215713501</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1038470938801765</v>
+        <v>-0.1828014254570007</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7153766155242933</v>
+        <v>0.7576336860656723</v>
       </c>
       <c r="D17" t="n">
-        <v>3.394917845726014</v>
+        <v>3.080292761325836</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9988620877265951</v>
+        <v>0.4208878278732262</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1331686228513717</v>
+        <v>-1.0334312915802</v>
       </c>
       <c r="G17" t="n">
-        <v>2.704300403594971</v>
+        <v>1.02701723575592</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.112385630607605</v>
+        <v>0.1038470938801765</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.686916232109074</v>
+        <v>0.7153766155242933</v>
       </c>
       <c r="D18" t="n">
-        <v>3.847963333129884</v>
+        <v>3.394917845726014</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.479923203587532</v>
+        <v>-0.9988620877265951</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6466008424758911</v>
+        <v>-0.1331686228513717</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0087048299610614</v>
+        <v>2.704300403594971</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.5677992701530457</v>
+        <v>-1.112385630607605</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.892059445381164</v>
+        <v>1.686916232109074</v>
       </c>
       <c r="D19" t="n">
-        <v>3.739774823188782</v>
+        <v>3.847963333129884</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.792329192161561</v>
+        <v>-1.479923203587532</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.914909839630127</v>
+        <v>-0.6466008424758911</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.065807104110718</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="H19" t="n">
-        <v>2.838385343551636</v>
+        <v>-0.5677992701530457</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.6834564805030802</v>
+        <v>1.892059445381164</v>
       </c>
       <c r="D20" t="n">
-        <v>2.868067562580109</v>
+        <v>3.739774823188782</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.777485311031344</v>
+        <v>-1.792329192161561</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1142318025231361</v>
+        <v>-1.914909839630127</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2412917762994766</v>
+        <v>-1.065807104110718</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7263187766075134</v>
+        <v>2.838385343551636</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.1287679672241191</v>
+        <v>-0.6834564805030802</v>
       </c>
       <c r="D21" t="n">
-        <v>2.86781930923462</v>
+        <v>2.868067562580109</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.374618053436277</v>
+        <v>-2.777485311031344</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4198171496391296</v>
+        <v>0.1142318025231361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1876883506774902</v>
+        <v>-0.2412917762994766</v>
       </c>
       <c r="H21" t="n">
-        <v>0.732122004032135</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3276743888855003</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.037657141685487</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-2.661090373992916</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0713185146450996</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.2884811162948608</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1009454801678657</v>
+        <v>0.7263187766075134</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-37-22/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-22/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4420366287231431</v>
+        <v>-0.1190295219421371</v>
       </c>
       <c r="D2" t="n">
-        <v>4.159920692443848</v>
+        <v>3.933163046836853</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.852656066417694</v>
+        <v>-1.068776398897171</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0030543261673301</v>
+        <v>-0.0641408488154411</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0183259565383195</v>
+        <v>0.0114537235349416</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0439822971820831</v>
+        <v>-0.641255795955658</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3119066953659063</v>
+        <v>1.005563497543334</v>
       </c>
       <c r="D3" t="n">
-        <v>3.965313136577606</v>
+        <v>4.189095079898834</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.959281176328659</v>
+        <v>-1.408742964267732</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.024892758578062</v>
+        <v>-0.0258090570569038</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007941247895359899</v>
+        <v>-0.0752891451120376</v>
       </c>
       <c r="H3" t="n">
-        <v>0.039248090237379</v>
+        <v>-0.038026362657547</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.328240633010866</v>
+        <v>0.09459304809570292</v>
       </c>
       <c r="D4" t="n">
-        <v>3.452776372432707</v>
+        <v>4.345824718475342</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.262899994850159</v>
+        <v>-2.468320369720459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0134390350431203</v>
+        <v>-0.2993239760398865</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0357356183230876</v>
+        <v>0.2926044464111328</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0925460830330848</v>
+        <v>0.0584903471171855</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.280377209186554</v>
+        <v>-0.07337808609008795</v>
       </c>
       <c r="D5" t="n">
-        <v>2.56487038731575</v>
+        <v>4.227709949016571</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.792269647121429</v>
+        <v>-1.961481541395187</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2785545587539673</v>
+        <v>-0.08659014850854869</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0339030213654041</v>
+        <v>-0.0867428630590438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0149661982432007</v>
+        <v>0.1705841124057769</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.962558269500729</v>
+        <v>0.1517496109008791</v>
       </c>
       <c r="D6" t="n">
-        <v>2.719248294830324</v>
+        <v>4.091286063194275</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.176476478576662</v>
+        <v>-1.76620078086853</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2206750661134719</v>
+        <v>0.1209513172507286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6401867866516113</v>
+        <v>-0.2257147133350372</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2525927722454071</v>
+        <v>-0.1018617823719978</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.4654391407966572</v>
+        <v>0.5791012048721321</v>
       </c>
       <c r="D7" t="n">
-        <v>3.728965997695926</v>
+        <v>4.162412345409393</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.883096873760225</v>
+        <v>-1.810639068484306</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9094256162643432</v>
+        <v>-0.070249505341053</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5726861953735352</v>
+        <v>-0.1577559560537338</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6157521605491638</v>
+        <v>0.0288633834570646</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.8071434497833259</v>
+        <v>0.4420366287231431</v>
       </c>
       <c r="D8" t="n">
-        <v>3.663023471832275</v>
+        <v>4.159920692443848</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.005156159400943</v>
+        <v>-1.852656066417694</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3003929853439331</v>
+        <v>0.0030543261673301</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3223841190338135</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0675006061792373</v>
+        <v>-0.0439822971820831</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.102240324020393</v>
+        <v>-0.3119066953659063</v>
       </c>
       <c r="D9" t="n">
-        <v>3.889697194099427</v>
+        <v>3.965313136577606</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.86714211106299</v>
+        <v>-1.959281176328659</v>
       </c>
       <c r="F9" t="n">
-        <v>0.40943244099617</v>
+        <v>-0.024892758578062</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7831292152404785</v>
+        <v>0.007941247895359899</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2806925773620605</v>
+        <v>0.039248090237379</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8947885036468448</v>
+        <v>-1.328240633010866</v>
       </c>
       <c r="D10" t="n">
-        <v>4.364453077316285</v>
+        <v>3.452776372432707</v>
       </c>
       <c r="E10" t="n">
-        <v>5.636359572410591</v>
+        <v>-2.262899994850159</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4190535545349121</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07376197725534429</v>
+        <v>0.0357356183230876</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.578767538070679</v>
+        <v>0.0925460830330848</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.309004843235045</v>
+        <v>-2.280377209186554</v>
       </c>
       <c r="D11" t="n">
-        <v>3.808936268091196</v>
+        <v>2.56487038731575</v>
       </c>
       <c r="E11" t="n">
-        <v>8.007967770099629</v>
+        <v>-2.792269647121429</v>
       </c>
       <c r="F11" t="n">
-        <v>2.760499954223633</v>
+        <v>-0.2785545587539673</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.066987991333008</v>
+        <v>-0.0339030213654041</v>
       </c>
       <c r="H11" t="n">
-        <v>1.048855662345886</v>
+        <v>0.0149661982432007</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.03219151496884</v>
+        <v>-1.962558269500729</v>
       </c>
       <c r="D12" t="n">
-        <v>2.626607954502109</v>
+        <v>2.719248294830324</v>
       </c>
       <c r="E12" t="n">
-        <v>4.059313654899583</v>
+        <v>-4.176476478576662</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5668829679489136</v>
+        <v>-0.2206750661134719</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.699732542037964</v>
+        <v>0.6401867866516113</v>
       </c>
       <c r="H12" t="n">
-        <v>1.101084589958191</v>
+        <v>0.2525927722454071</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.8205822110175988</v>
+        <v>-0.4654391407966572</v>
       </c>
       <c r="D13" t="n">
-        <v>3.666950583457956</v>
+        <v>3.728965997695926</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5117366313934346</v>
+        <v>-4.883096873760225</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7536550164222717</v>
+        <v>0.9094256162643432</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4547891616821289</v>
+        <v>-0.5726861953735352</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0024434609804302</v>
+        <v>0.6157521605491638</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.767575740814208</v>
+        <v>-0.8071434497833259</v>
       </c>
       <c r="D14" t="n">
-        <v>5.950162887573243</v>
+        <v>3.663023471832275</v>
       </c>
       <c r="E14" t="n">
-        <v>1.030251502990718</v>
+        <v>-7.005156159400943</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0832303911447525</v>
+        <v>0.3003929853439331</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0516181141138076</v>
+        <v>-0.3223841190338135</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2286163121461868</v>
+        <v>-0.0675006061792373</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.609463393688202</v>
+        <v>2.102240324020393</v>
       </c>
       <c r="D15" t="n">
-        <v>6.117009162902832</v>
+        <v>3.889697194099427</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.02948403358459517</v>
+        <v>-1.86714211106299</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06688974797725671</v>
+        <v>0.40943244099617</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5899431109428406</v>
+        <v>0.7831292152404785</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.3481931984424591</v>
+        <v>-0.2806925773620605</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.414643406867981</v>
+        <v>0.8947885036468448</v>
       </c>
       <c r="D16" t="n">
-        <v>3.881679594516751</v>
+        <v>4.364453077316285</v>
       </c>
       <c r="E16" t="n">
-        <v>1.453149795532228</v>
+        <v>5.636359572410591</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7376197576522827</v>
+        <v>-0.4190535545349121</v>
       </c>
       <c r="G16" t="n">
-        <v>1.138958215713501</v>
+        <v>-0.07376197725534429</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1828014254570007</v>
+        <v>-2.578767538070679</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7576336860656723</v>
+        <v>2.309004843235045</v>
       </c>
       <c r="D17" t="n">
-        <v>3.080292761325836</v>
+        <v>3.808936268091196</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4208878278732262</v>
+        <v>8.007967770099629</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.0334312915802</v>
+        <v>2.760499954223633</v>
       </c>
       <c r="G17" t="n">
-        <v>1.02701723575592</v>
+        <v>-4.066987991333008</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1038470938801765</v>
+        <v>1.048855662345886</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7153766155242933</v>
+        <v>7.03219151496884</v>
       </c>
       <c r="D18" t="n">
-        <v>3.394917845726014</v>
+        <v>2.626607954502109</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.9988620877265951</v>
+        <v>4.059313654899583</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1331686228513717</v>
+        <v>0.5668829679489136</v>
       </c>
       <c r="G18" t="n">
-        <v>2.704300403594971</v>
+        <v>-1.699732542037964</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.112385630607605</v>
+        <v>1.101084589958191</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.686916232109074</v>
+        <v>-0.8205822110175988</v>
       </c>
       <c r="D19" t="n">
-        <v>3.847963333129884</v>
+        <v>3.666950583457956</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.479923203587532</v>
+        <v>0.5117366313934346</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6466008424758911</v>
+        <v>-0.7536550164222717</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0087048299610614</v>
+        <v>-0.4547891616821289</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.5677992701530457</v>
+        <v>0.0024434609804302</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.892059445381164</v>
+        <v>1.767575740814208</v>
       </c>
       <c r="D20" t="n">
-        <v>3.739774823188782</v>
+        <v>5.950162887573243</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.792329192161561</v>
+        <v>1.030251502990718</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.914909839630127</v>
+        <v>-0.0832303911447525</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.065807104110718</v>
+        <v>-0.0516181141138076</v>
       </c>
       <c r="H20" t="n">
-        <v>2.838385343551636</v>
+        <v>-0.2286163121461868</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>1.609463393688202</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.117009162902832</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.02948403358459517</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06688974797725671</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5899431109428406</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3481931984424591</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.414643406867981</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.881679594516751</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.453149795532228</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.7376197576522827</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.138958215713501</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1828014254570007</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7576336860656723</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.080292761325836</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4208878278732262</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.0334312915802</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.02701723575592</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1038470938801765</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7153766155242933</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.394917845726014</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.9988620877265951</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1331686228513717</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.704300403594971</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.112385630607605</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.686916232109074</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.847963333129884</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.479923203587532</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.6466008424758911</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0087048299610614</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.5677992701530457</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.892059445381164</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.739774823188782</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.792329192161561</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.914909839630127</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1.065807104110718</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.838385343551636</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>-0.6834564805030802</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>2.868067562580109</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E27" t="n">
         <v>-2.777485311031344</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F27" t="n">
         <v>0.1142318025231361</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G27" t="n">
         <v>-0.2412917762994766</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>0.7263187766075134</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1287679672241191</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.86781930923462</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.374618053436277</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.4198171496391296</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1876883506774902</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.732122004032135</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3276743888855003</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.037657141685487</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.661090373992916</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0713185146450996</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.2884811162948608</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1009454801678657</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1350092887878401</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.256921470165254</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-2.639114320278168</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0609338097274303</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.087353728711605</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0229074470698833</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1058316230773927</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.051037281751632</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.528261989355087</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.015118914656341</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0455094613134861</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.119576871395111</v>
       </c>
     </row>
   </sheetData>
